--- a/DevelopmentNotes/JSerendip_Activity_Log.xlsx
+++ b/DevelopmentNotes/JSerendip_Activity_Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geom99Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geom99Web\Geom99clone\Geom99\DevelopmentNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42364D0-DD96-46FE-8358-D08A86FBAACC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3289CB9E-133F-467E-87C0-B42F0E798CB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33690" yWindow="-4740" windowWidth="18675" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
